--- a/Data/diurnal result.xlsx
+++ b/Data/diurnal result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Treatment</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Tleaf</t>
+  </si>
+  <si>
+    <t>VPDleaf</t>
+  </si>
+  <si>
+    <t>PhiPS2</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J12"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +455,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -475,7 +481,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -501,7 +507,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -527,7 +533,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -553,7 +559,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -579,7 +585,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -605,7 +611,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -631,20 +637,132 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>28.1</v>
+      </c>
+      <c r="I10">
+        <v>30.8</v>
+      </c>
+      <c r="J10">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>1.31</v>
+      </c>
+      <c r="I11">
+        <v>1.61</v>
+      </c>
+      <c r="J11">
+        <v>1.59</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1.41</v>
+      </c>
+      <c r="I12">
+        <v>1.74</v>
+      </c>
+      <c r="J12">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J13">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>0.309</v>
+      </c>
+      <c r="I14">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.34599999999999997</v>
       </c>
     </row>
   </sheetData>
